--- a/src/main/resources/AllCollectionPages.xlsx
+++ b/src/main/resources/AllCollectionPages.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijeta\git\TJAutomation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB670E-175A-4CE9-8A25-933386305B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C0AE9-67DC-48A5-8E7B-CAAD50021D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E36BB93-8918-4A7C-A9DF-2D6DC4D87C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>URLs</t>
   </si>
@@ -81,9 +82,6 @@
     <t>https://tommyjohn.com/collections/mens-womens-underwear</t>
   </si>
   <si>
-    <t>https://tommyjohn.com/products/e-gift-card</t>
-  </si>
-  <si>
     <t>https://tommyjohn.com/collections/mens-underwear</t>
   </si>
   <si>
@@ -267,9 +265,6 @@
     <t>https://tommyjohn.com/pages/bras</t>
   </si>
   <si>
-    <t>https://tommyjohn.com/collections/womens-mix-and-match</t>
-  </si>
-  <si>
     <t>https://tommyjohn.com/collections/mens-pack</t>
   </si>
   <si>
@@ -322,6 +317,9 @@
   </si>
   <si>
     <t>https://tommyjohn.com/collections/womens-second-skin</t>
+  </si>
+  <si>
+    <t>https://staging.tommyjohn.com/collections/mens-trunk-1</t>
   </si>
 </sst>
 </file>
@@ -366,11 +364,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C82410-DE23-46B1-9D53-2AA20A124B74}">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,12 +938,12 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
@@ -964,7 +963,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
@@ -974,7 +973,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
@@ -1039,17 +1038,17 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
@@ -1074,7 +1073,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
@@ -1144,22 +1143,22 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
@@ -1168,17 +1167,11 @@
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>91</v>
+      <c r="A95" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A96" xr:uid="{36C3B95F-99B5-4B9D-BBC0-59F744D1099C}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A2753353-4518-44AA-884F-E2ADBA84D480}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{08302394-8AB6-4E03-AF2A-03DA2C3F0D6D}"/>
@@ -1194,86 +1187,102 @@
     <hyperlink ref="A13" r:id="rId12" xr:uid="{BB177064-29B6-45F8-AD78-B12E699A975B}"/>
     <hyperlink ref="A14" r:id="rId13" xr:uid="{6BB9EB4B-9F33-425B-8EC6-73F4CAAD161C}"/>
     <hyperlink ref="A15" r:id="rId14" xr:uid="{4838F18A-99B7-4DCD-B094-5AAF01F5A479}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{DF38C03B-5D04-4B1C-8421-002E3F1816D2}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{5A74722A-2914-4BBE-9480-09A477753682}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{4172B904-8DD0-42FD-930A-BDF332FCBF74}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{875414B1-72E3-42B9-9CF8-04E61E66630F}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{E4F3706E-FB12-4F6A-B251-04A97FB5C587}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{E2D8B15B-312F-4685-8FCE-EE49893D6042}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{4D2BE94A-6917-4EBF-AF3E-C9CB4DFC35B1}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{81D79FC2-AACB-489D-B3B9-3E9F03E7E4B9}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{7601DEEA-FE82-4A84-AA2F-3B8041A6B5D6}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{6060BBD1-6E78-48F4-8020-A0F279B035D3}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{2BEA64D2-EEB6-46E9-82B4-60567942D191}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{A9F1B6C6-5B63-46CF-B5BB-84CCDF4B7E78}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{1D8BEAAF-C383-4C66-A878-2E11124598A7}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{C4FA394D-EC01-4328-B935-B8CFF3B4DC57}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{77075B89-8471-461C-AF45-BA40D762DC82}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{50274DFF-09A2-49A0-8A8A-4E0DA74AE921}"/>
-    <hyperlink ref="A32" r:id="rId31" xr:uid="{DD5025BB-D8B7-4248-A4B4-467F2E8EE5B9}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{B8033B37-0B9B-4675-8157-EAAFAA37FD12}"/>
-    <hyperlink ref="A34" r:id="rId33" xr:uid="{0DB9801B-569A-4358-9C58-B742EADA4561}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{7CFD71CD-0A4D-4D3A-BC38-CD569CF77776}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{949C40C2-E922-4D2C-9111-242B051177A5}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{316AC240-04D3-4BA8-B5A0-C5FECF53BD97}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{048CC2B8-F9C0-4F38-8EE6-0D30C061F46C}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{3B104A6D-EBF4-4CDB-885B-808A720D7E49}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{DA49711C-4AFC-4B29-9915-ED2A27B3AF33}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{F885B5BA-DBEB-44C4-919B-CC22C99E1B7D}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{3720BD22-1543-40B5-ABF3-C3AFFB4C222C}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{A1167042-EE05-450E-B9D1-2FC46D0D8870}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{526BBB12-7F38-4579-B263-6E7B821ED64B}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{08991842-169D-4131-8E5C-0B23BF2231E4}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{1980725C-6E8E-434A-BA30-7F025493AE0C}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{A69D5B92-5F36-4F0D-8496-62C7779EF27C}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{D58319EE-A17C-4704-B94D-03E499FA2F49}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{920449F7-B769-4DA0-88C9-FC171552A0C2}"/>
-    <hyperlink ref="A51" r:id="rId49" xr:uid="{22DC2BD2-5ED5-453E-9772-4EBC80B76840}"/>
-    <hyperlink ref="A52" r:id="rId50" xr:uid="{B3016CBF-3B17-447C-8747-8883821F678C}"/>
-    <hyperlink ref="A53" r:id="rId51" xr:uid="{BCAD1D13-E879-487C-8991-BE4B5F26ED9D}"/>
-    <hyperlink ref="A54" r:id="rId52" xr:uid="{B24281AE-7CFB-4E77-8710-6C5C69DF0E3A}"/>
-    <hyperlink ref="A57" r:id="rId53" xr:uid="{9D345891-C64A-4116-9CBD-D8299A065AB2}"/>
-    <hyperlink ref="A58" r:id="rId54" xr:uid="{4A071EAE-97D2-4226-8320-18BD012FE980}"/>
-    <hyperlink ref="A59" r:id="rId55" xr:uid="{002D293B-E1E7-41D1-8F58-18CB033D4C0B}"/>
-    <hyperlink ref="A60" r:id="rId56" xr:uid="{CD479996-1364-46E4-8A92-9A6A42551FF6}"/>
-    <hyperlink ref="A61" r:id="rId57" xr:uid="{88C16AE5-2964-47DA-866E-C99E20C640BF}"/>
-    <hyperlink ref="A62" r:id="rId58" xr:uid="{DEE39071-BFD1-4659-BCBC-7253D2D83844}"/>
-    <hyperlink ref="A63" r:id="rId59" xr:uid="{124911A5-BF82-4A8A-90E3-3B307B75745A}"/>
-    <hyperlink ref="A64" r:id="rId60" xr:uid="{872676C7-BA93-44ED-8176-D65A522D055F}"/>
-    <hyperlink ref="A65" r:id="rId61" xr:uid="{8C69D9C5-F81F-43A4-88F1-F5072E510E74}"/>
-    <hyperlink ref="A66" r:id="rId62" xr:uid="{7AB8998F-8F34-45A4-B0AD-E6A7A0B2A881}"/>
-    <hyperlink ref="A67" r:id="rId63" xr:uid="{E59E2C03-FBE2-4EEE-AF2C-2EFBEABA12BE}"/>
-    <hyperlink ref="A68" r:id="rId64" xr:uid="{E98E434E-9191-4408-B92B-0C826578785E}"/>
-    <hyperlink ref="A69" r:id="rId65" xr:uid="{94690B43-F21E-4A61-B018-142AAE1B9ADB}"/>
-    <hyperlink ref="A72" r:id="rId66" xr:uid="{30179ED1-FF44-42C3-9D41-B7016703D894}"/>
-    <hyperlink ref="A73" r:id="rId67" xr:uid="{1ADF7731-1C78-48BE-AAA9-4C317A651BD8}"/>
-    <hyperlink ref="A74" r:id="rId68" xr:uid="{D2BC7663-6094-4414-9F29-42EB24D336C6}"/>
-    <hyperlink ref="A75" r:id="rId69" xr:uid="{2FFE24D8-5AB1-4F84-96BF-4128D22D12CC}"/>
-    <hyperlink ref="A76" r:id="rId70" xr:uid="{96A8D8B5-3A73-4548-814D-5DBC7029281A}"/>
-    <hyperlink ref="A55" r:id="rId71" xr:uid="{C95D41BC-2BE5-41DB-91BA-DDDADA812E67}"/>
-    <hyperlink ref="A77" r:id="rId72" xr:uid="{9C117DCB-567A-4238-B1DB-4E79F5FEFD0F}"/>
-    <hyperlink ref="A78" r:id="rId73" xr:uid="{39CDE5E9-80B4-431E-9B6A-23077E525A95}"/>
-    <hyperlink ref="A79" r:id="rId74" xr:uid="{851B6F22-EA97-4169-AFEA-1E55E7DAB8BB}"/>
-    <hyperlink ref="A80" r:id="rId75" xr:uid="{AD389BF8-D2FE-4E61-9AA3-4B70565D545D}"/>
-    <hyperlink ref="A81" r:id="rId76" xr:uid="{7211144F-07D8-4C74-998F-6DB44B3B9C9E}"/>
-    <hyperlink ref="A82" r:id="rId77" xr:uid="{269DB1EF-3835-4747-89A9-EF8F5B50AD58}"/>
-    <hyperlink ref="A83" r:id="rId78" xr:uid="{3A3D79C0-396E-45F0-9F95-323455383605}"/>
-    <hyperlink ref="A84" r:id="rId79" xr:uid="{7BD2167F-29F3-4974-8CCC-2A0B0452CDCB}"/>
-    <hyperlink ref="A85" r:id="rId80" xr:uid="{1E5B6BA8-A124-436E-B988-9A290CE1FF56}"/>
-    <hyperlink ref="A86" r:id="rId81" xr:uid="{8891F656-A5A3-4E45-B521-F203496DE824}"/>
-    <hyperlink ref="A87" r:id="rId82" xr:uid="{24F9B58E-0739-42CE-B33E-92641CD0D595}"/>
-    <hyperlink ref="A88" r:id="rId83" xr:uid="{C7443DD0-9344-40C4-874B-1767DBD50427}"/>
-    <hyperlink ref="A89" r:id="rId84" xr:uid="{AE4C65C3-8DCB-4AE5-8442-87A00ED8DCDB}"/>
-    <hyperlink ref="A90" r:id="rId85" xr:uid="{2CC71A87-9DD9-48D3-B3D0-197ABE68EDEE}"/>
-    <hyperlink ref="A91" r:id="rId86" xr:uid="{44AF49EA-475E-4A10-8D61-9C3C24AF667D}"/>
-    <hyperlink ref="A94" r:id="rId87" xr:uid="{1B9E0934-1E3E-44C6-ADF5-9D4FBE2966A9}"/>
-    <hyperlink ref="A95" r:id="rId88" xr:uid="{1512CE27-C7EE-4C2D-8EDC-C870908999A6}"/>
-    <hyperlink ref="A96" r:id="rId89" xr:uid="{4194F7AE-884A-4DC7-A28E-76CBEBD37199}"/>
-    <hyperlink ref="A93" r:id="rId90" xr:uid="{30AEC6DE-59B8-4F03-9BB0-94F9F7739D9A}"/>
-    <hyperlink ref="A56" r:id="rId91" xr:uid="{00567345-3DC5-4383-8379-17CFAA2A60F6}"/>
-    <hyperlink ref="A71" r:id="rId92" xr:uid="{23C81692-18EA-4785-AFF2-84B19A44313E}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{5A74722A-2914-4BBE-9480-09A477753682}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{4172B904-8DD0-42FD-930A-BDF332FCBF74}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{875414B1-72E3-42B9-9CF8-04E61E66630F}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{E4F3706E-FB12-4F6A-B251-04A97FB5C587}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{E2D8B15B-312F-4685-8FCE-EE49893D6042}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{4D2BE94A-6917-4EBF-AF3E-C9CB4DFC35B1}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{81D79FC2-AACB-489D-B3B9-3E9F03E7E4B9}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{7601DEEA-FE82-4A84-AA2F-3B8041A6B5D6}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{6060BBD1-6E78-48F4-8020-A0F279B035D3}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{2BEA64D2-EEB6-46E9-82B4-60567942D191}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{A9F1B6C6-5B63-46CF-B5BB-84CCDF4B7E78}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{1D8BEAAF-C383-4C66-A878-2E11124598A7}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{C4FA394D-EC01-4328-B935-B8CFF3B4DC57}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{77075B89-8471-461C-AF45-BA40D762DC82}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{50274DFF-09A2-49A0-8A8A-4E0DA74AE921}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{DD5025BB-D8B7-4248-A4B4-467F2E8EE5B9}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{B8033B37-0B9B-4675-8157-EAAFAA37FD12}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{0DB9801B-569A-4358-9C58-B742EADA4561}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{7CFD71CD-0A4D-4D3A-BC38-CD569CF77776}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{949C40C2-E922-4D2C-9111-242B051177A5}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{316AC240-04D3-4BA8-B5A0-C5FECF53BD97}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{048CC2B8-F9C0-4F38-8EE6-0D30C061F46C}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{3B104A6D-EBF4-4CDB-885B-808A720D7E49}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{DA49711C-4AFC-4B29-9915-ED2A27B3AF33}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{F885B5BA-DBEB-44C4-919B-CC22C99E1B7D}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{3720BD22-1543-40B5-ABF3-C3AFFB4C222C}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{A1167042-EE05-450E-B9D1-2FC46D0D8870}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{526BBB12-7F38-4579-B263-6E7B821ED64B}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{08991842-169D-4131-8E5C-0B23BF2231E4}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{1980725C-6E8E-434A-BA30-7F025493AE0C}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{A69D5B92-5F36-4F0D-8496-62C7779EF27C}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{D58319EE-A17C-4704-B94D-03E499FA2F49}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{920449F7-B769-4DA0-88C9-FC171552A0C2}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{22DC2BD2-5ED5-453E-9772-4EBC80B76840}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{B3016CBF-3B17-447C-8747-8883821F678C}"/>
+    <hyperlink ref="A52" r:id="rId50" xr:uid="{BCAD1D13-E879-487C-8991-BE4B5F26ED9D}"/>
+    <hyperlink ref="A53" r:id="rId51" xr:uid="{B24281AE-7CFB-4E77-8710-6C5C69DF0E3A}"/>
+    <hyperlink ref="A56" r:id="rId52" xr:uid="{9D345891-C64A-4116-9CBD-D8299A065AB2}"/>
+    <hyperlink ref="A57" r:id="rId53" xr:uid="{4A071EAE-97D2-4226-8320-18BD012FE980}"/>
+    <hyperlink ref="A58" r:id="rId54" xr:uid="{002D293B-E1E7-41D1-8F58-18CB033D4C0B}"/>
+    <hyperlink ref="A59" r:id="rId55" xr:uid="{CD479996-1364-46E4-8A92-9A6A42551FF6}"/>
+    <hyperlink ref="A60" r:id="rId56" xr:uid="{88C16AE5-2964-47DA-866E-C99E20C640BF}"/>
+    <hyperlink ref="A61" r:id="rId57" xr:uid="{DEE39071-BFD1-4659-BCBC-7253D2D83844}"/>
+    <hyperlink ref="A62" r:id="rId58" xr:uid="{124911A5-BF82-4A8A-90E3-3B307B75745A}"/>
+    <hyperlink ref="A63" r:id="rId59" xr:uid="{872676C7-BA93-44ED-8176-D65A522D055F}"/>
+    <hyperlink ref="A64" r:id="rId60" xr:uid="{8C69D9C5-F81F-43A4-88F1-F5072E510E74}"/>
+    <hyperlink ref="A65" r:id="rId61" xr:uid="{7AB8998F-8F34-45A4-B0AD-E6A7A0B2A881}"/>
+    <hyperlink ref="A66" r:id="rId62" xr:uid="{E59E2C03-FBE2-4EEE-AF2C-2EFBEABA12BE}"/>
+    <hyperlink ref="A67" r:id="rId63" xr:uid="{E98E434E-9191-4408-B92B-0C826578785E}"/>
+    <hyperlink ref="A68" r:id="rId64" xr:uid="{94690B43-F21E-4A61-B018-142AAE1B9ADB}"/>
+    <hyperlink ref="A71" r:id="rId65" xr:uid="{30179ED1-FF44-42C3-9D41-B7016703D894}"/>
+    <hyperlink ref="A72" r:id="rId66" xr:uid="{1ADF7731-1C78-48BE-AAA9-4C317A651BD8}"/>
+    <hyperlink ref="A73" r:id="rId67" xr:uid="{D2BC7663-6094-4414-9F29-42EB24D336C6}"/>
+    <hyperlink ref="A74" r:id="rId68" xr:uid="{2FFE24D8-5AB1-4F84-96BF-4128D22D12CC}"/>
+    <hyperlink ref="A75" r:id="rId69" xr:uid="{96A8D8B5-3A73-4548-814D-5DBC7029281A}"/>
+    <hyperlink ref="A54" r:id="rId70" xr:uid="{C95D41BC-2BE5-41DB-91BA-DDDADA812E67}"/>
+    <hyperlink ref="A76" r:id="rId71" xr:uid="{9C117DCB-567A-4238-B1DB-4E79F5FEFD0F}"/>
+    <hyperlink ref="A77" r:id="rId72" xr:uid="{39CDE5E9-80B4-431E-9B6A-23077E525A95}"/>
+    <hyperlink ref="A78" r:id="rId73" xr:uid="{851B6F22-EA97-4169-AFEA-1E55E7DAB8BB}"/>
+    <hyperlink ref="A79" r:id="rId74" xr:uid="{7211144F-07D8-4C74-998F-6DB44B3B9C9E}"/>
+    <hyperlink ref="A80" r:id="rId75" xr:uid="{269DB1EF-3835-4747-89A9-EF8F5B50AD58}"/>
+    <hyperlink ref="A81" r:id="rId76" xr:uid="{3A3D79C0-396E-45F0-9F95-323455383605}"/>
+    <hyperlink ref="A82" r:id="rId77" xr:uid="{7BD2167F-29F3-4974-8CCC-2A0B0452CDCB}"/>
+    <hyperlink ref="A83" r:id="rId78" xr:uid="{1E5B6BA8-A124-436E-B988-9A290CE1FF56}"/>
+    <hyperlink ref="A84" r:id="rId79" xr:uid="{8891F656-A5A3-4E45-B521-F203496DE824}"/>
+    <hyperlink ref="A85" r:id="rId80" xr:uid="{24F9B58E-0739-42CE-B33E-92641CD0D595}"/>
+    <hyperlink ref="A86" r:id="rId81" xr:uid="{C7443DD0-9344-40C4-874B-1767DBD50427}"/>
+    <hyperlink ref="A87" r:id="rId82" xr:uid="{AE4C65C3-8DCB-4AE5-8442-87A00ED8DCDB}"/>
+    <hyperlink ref="A88" r:id="rId83" xr:uid="{2CC71A87-9DD9-48D3-B3D0-197ABE68EDEE}"/>
+    <hyperlink ref="A89" r:id="rId84" xr:uid="{44AF49EA-475E-4A10-8D61-9C3C24AF667D}"/>
+    <hyperlink ref="A92" r:id="rId85" xr:uid="{1B9E0934-1E3E-44C6-ADF5-9D4FBE2966A9}"/>
+    <hyperlink ref="A93" r:id="rId86" xr:uid="{1512CE27-C7EE-4C2D-8EDC-C870908999A6}"/>
+    <hyperlink ref="A94" r:id="rId87" xr:uid="{4194F7AE-884A-4DC7-A28E-76CBEBD37199}"/>
+    <hyperlink ref="A91" r:id="rId88" xr:uid="{30AEC6DE-59B8-4F03-9BB0-94F9F7739D9A}"/>
+    <hyperlink ref="A55" r:id="rId89" xr:uid="{00567345-3DC5-4383-8379-17CFAA2A60F6}"/>
+    <hyperlink ref="A70" r:id="rId90" xr:uid="{23C81692-18EA-4785-AFF2-84B19A44313E}"/>
+    <hyperlink ref="A95" r:id="rId91" xr:uid="{1C10C088-FB94-4305-819C-108DF970BDB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId93"/>
+  <pageSetup orientation="portrait" r:id="rId92"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A92C8C-C1EC-48C2-A6C1-E0CB36E8F620}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="98.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/AllCollectionPages.xlsx
+++ b/src/main/resources/AllCollectionPages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijeta\git\TJAutomation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C0AE9-67DC-48A5-8E7B-CAAD50021D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6438C-FE36-47A2-8454-D476AD198BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E36BB93-8918-4A7C-A9DF-2D6DC4D87C0E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>URLs</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t>https://tommyjohn.com/collections/womens-second-skin</t>
-  </si>
-  <si>
-    <t>https://staging.tommyjohn.com/collections/mens-trunk-1</t>
   </si>
 </sst>
 </file>
@@ -687,9 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C82410-DE23-46B1-9D53-2AA20A124B74}">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1167,9 +1162,7 @@
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A95" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1263,10 +1256,9 @@
     <hyperlink ref="A91" r:id="rId88" xr:uid="{30AEC6DE-59B8-4F03-9BB0-94F9F7739D9A}"/>
     <hyperlink ref="A55" r:id="rId89" xr:uid="{00567345-3DC5-4383-8379-17CFAA2A60F6}"/>
     <hyperlink ref="A70" r:id="rId90" xr:uid="{23C81692-18EA-4785-AFF2-84B19A44313E}"/>
-    <hyperlink ref="A95" r:id="rId91" xr:uid="{1C10C088-FB94-4305-819C-108DF970BDB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId92"/>
+  <pageSetup orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/AllCollectionPages.xlsx
+++ b/src/main/resources/AllCollectionPages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijeta\git\TJAutomation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6438C-FE36-47A2-8454-D476AD198BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC0805B-EA09-49AF-9F48-F0728FB9CBB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E36BB93-8918-4A7C-A9DF-2D6DC4D87C0E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>URLs</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>https://tommyjohn.com/pages/mens-shop-the-look</t>
-  </si>
-  <si>
-    <t>https://tommyjohn.com/collections/all-mens-collections</t>
   </si>
   <si>
     <t>https://tommyjohn.com/collections/mens-second-skin</t>
@@ -682,9 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C82410-DE23-46B1-9D53-2AA20A124B74}">
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -928,12 +927,12 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
@@ -953,7 +952,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
@@ -963,7 +962,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
@@ -1028,17 +1027,17 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
@@ -1063,7 +1062,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
@@ -1133,17 +1132,17 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
@@ -1157,12 +1156,7 @@
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A94" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1206,59 +1200,58 @@
     <hyperlink ref="A39" r:id="rId38" xr:uid="{DA49711C-4AFC-4B29-9915-ED2A27B3AF33}"/>
     <hyperlink ref="A40" r:id="rId39" xr:uid="{F885B5BA-DBEB-44C4-919B-CC22C99E1B7D}"/>
     <hyperlink ref="A41" r:id="rId40" xr:uid="{3720BD22-1543-40B5-ABF3-C3AFFB4C222C}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{A1167042-EE05-450E-B9D1-2FC46D0D8870}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{526BBB12-7F38-4579-B263-6E7B821ED64B}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{08991842-169D-4131-8E5C-0B23BF2231E4}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{1980725C-6E8E-434A-BA30-7F025493AE0C}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{A69D5B92-5F36-4F0D-8496-62C7779EF27C}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{D58319EE-A17C-4704-B94D-03E499FA2F49}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{920449F7-B769-4DA0-88C9-FC171552A0C2}"/>
-    <hyperlink ref="A50" r:id="rId48" xr:uid="{22DC2BD2-5ED5-453E-9772-4EBC80B76840}"/>
-    <hyperlink ref="A51" r:id="rId49" xr:uid="{B3016CBF-3B17-447C-8747-8883821F678C}"/>
-    <hyperlink ref="A52" r:id="rId50" xr:uid="{BCAD1D13-E879-487C-8991-BE4B5F26ED9D}"/>
-    <hyperlink ref="A53" r:id="rId51" xr:uid="{B24281AE-7CFB-4E77-8710-6C5C69DF0E3A}"/>
-    <hyperlink ref="A56" r:id="rId52" xr:uid="{9D345891-C64A-4116-9CBD-D8299A065AB2}"/>
-    <hyperlink ref="A57" r:id="rId53" xr:uid="{4A071EAE-97D2-4226-8320-18BD012FE980}"/>
-    <hyperlink ref="A58" r:id="rId54" xr:uid="{002D293B-E1E7-41D1-8F58-18CB033D4C0B}"/>
-    <hyperlink ref="A59" r:id="rId55" xr:uid="{CD479996-1364-46E4-8A92-9A6A42551FF6}"/>
-    <hyperlink ref="A60" r:id="rId56" xr:uid="{88C16AE5-2964-47DA-866E-C99E20C640BF}"/>
-    <hyperlink ref="A61" r:id="rId57" xr:uid="{DEE39071-BFD1-4659-BCBC-7253D2D83844}"/>
-    <hyperlink ref="A62" r:id="rId58" xr:uid="{124911A5-BF82-4A8A-90E3-3B307B75745A}"/>
-    <hyperlink ref="A63" r:id="rId59" xr:uid="{872676C7-BA93-44ED-8176-D65A522D055F}"/>
-    <hyperlink ref="A64" r:id="rId60" xr:uid="{8C69D9C5-F81F-43A4-88F1-F5072E510E74}"/>
-    <hyperlink ref="A65" r:id="rId61" xr:uid="{7AB8998F-8F34-45A4-B0AD-E6A7A0B2A881}"/>
-    <hyperlink ref="A66" r:id="rId62" xr:uid="{E59E2C03-FBE2-4EEE-AF2C-2EFBEABA12BE}"/>
-    <hyperlink ref="A67" r:id="rId63" xr:uid="{E98E434E-9191-4408-B92B-0C826578785E}"/>
-    <hyperlink ref="A68" r:id="rId64" xr:uid="{94690B43-F21E-4A61-B018-142AAE1B9ADB}"/>
-    <hyperlink ref="A71" r:id="rId65" xr:uid="{30179ED1-FF44-42C3-9D41-B7016703D894}"/>
-    <hyperlink ref="A72" r:id="rId66" xr:uid="{1ADF7731-1C78-48BE-AAA9-4C317A651BD8}"/>
-    <hyperlink ref="A73" r:id="rId67" xr:uid="{D2BC7663-6094-4414-9F29-42EB24D336C6}"/>
-    <hyperlink ref="A74" r:id="rId68" xr:uid="{2FFE24D8-5AB1-4F84-96BF-4128D22D12CC}"/>
-    <hyperlink ref="A75" r:id="rId69" xr:uid="{96A8D8B5-3A73-4548-814D-5DBC7029281A}"/>
-    <hyperlink ref="A54" r:id="rId70" xr:uid="{C95D41BC-2BE5-41DB-91BA-DDDADA812E67}"/>
-    <hyperlink ref="A76" r:id="rId71" xr:uid="{9C117DCB-567A-4238-B1DB-4E79F5FEFD0F}"/>
-    <hyperlink ref="A77" r:id="rId72" xr:uid="{39CDE5E9-80B4-431E-9B6A-23077E525A95}"/>
-    <hyperlink ref="A78" r:id="rId73" xr:uid="{851B6F22-EA97-4169-AFEA-1E55E7DAB8BB}"/>
-    <hyperlink ref="A79" r:id="rId74" xr:uid="{7211144F-07D8-4C74-998F-6DB44B3B9C9E}"/>
-    <hyperlink ref="A80" r:id="rId75" xr:uid="{269DB1EF-3835-4747-89A9-EF8F5B50AD58}"/>
-    <hyperlink ref="A81" r:id="rId76" xr:uid="{3A3D79C0-396E-45F0-9F95-323455383605}"/>
-    <hyperlink ref="A82" r:id="rId77" xr:uid="{7BD2167F-29F3-4974-8CCC-2A0B0452CDCB}"/>
-    <hyperlink ref="A83" r:id="rId78" xr:uid="{1E5B6BA8-A124-436E-B988-9A290CE1FF56}"/>
-    <hyperlink ref="A84" r:id="rId79" xr:uid="{8891F656-A5A3-4E45-B521-F203496DE824}"/>
-    <hyperlink ref="A85" r:id="rId80" xr:uid="{24F9B58E-0739-42CE-B33E-92641CD0D595}"/>
-    <hyperlink ref="A86" r:id="rId81" xr:uid="{C7443DD0-9344-40C4-874B-1767DBD50427}"/>
-    <hyperlink ref="A87" r:id="rId82" xr:uid="{AE4C65C3-8DCB-4AE5-8442-87A00ED8DCDB}"/>
-    <hyperlink ref="A88" r:id="rId83" xr:uid="{2CC71A87-9DD9-48D3-B3D0-197ABE68EDEE}"/>
-    <hyperlink ref="A89" r:id="rId84" xr:uid="{44AF49EA-475E-4A10-8D61-9C3C24AF667D}"/>
-    <hyperlink ref="A92" r:id="rId85" xr:uid="{1B9E0934-1E3E-44C6-ADF5-9D4FBE2966A9}"/>
-    <hyperlink ref="A93" r:id="rId86" xr:uid="{1512CE27-C7EE-4C2D-8EDC-C870908999A6}"/>
-    <hyperlink ref="A94" r:id="rId87" xr:uid="{4194F7AE-884A-4DC7-A28E-76CBEBD37199}"/>
-    <hyperlink ref="A91" r:id="rId88" xr:uid="{30AEC6DE-59B8-4F03-9BB0-94F9F7739D9A}"/>
-    <hyperlink ref="A55" r:id="rId89" xr:uid="{00567345-3DC5-4383-8379-17CFAA2A60F6}"/>
-    <hyperlink ref="A70" r:id="rId90" xr:uid="{23C81692-18EA-4785-AFF2-84B19A44313E}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{526BBB12-7F38-4579-B263-6E7B821ED64B}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{08991842-169D-4131-8E5C-0B23BF2231E4}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{1980725C-6E8E-434A-BA30-7F025493AE0C}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{A69D5B92-5F36-4F0D-8496-62C7779EF27C}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{D58319EE-A17C-4704-B94D-03E499FA2F49}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{920449F7-B769-4DA0-88C9-FC171552A0C2}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{22DC2BD2-5ED5-453E-9772-4EBC80B76840}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{B3016CBF-3B17-447C-8747-8883821F678C}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{BCAD1D13-E879-487C-8991-BE4B5F26ED9D}"/>
+    <hyperlink ref="A52" r:id="rId50" xr:uid="{B24281AE-7CFB-4E77-8710-6C5C69DF0E3A}"/>
+    <hyperlink ref="A55" r:id="rId51" xr:uid="{9D345891-C64A-4116-9CBD-D8299A065AB2}"/>
+    <hyperlink ref="A56" r:id="rId52" xr:uid="{4A071EAE-97D2-4226-8320-18BD012FE980}"/>
+    <hyperlink ref="A57" r:id="rId53" xr:uid="{002D293B-E1E7-41D1-8F58-18CB033D4C0B}"/>
+    <hyperlink ref="A58" r:id="rId54" xr:uid="{CD479996-1364-46E4-8A92-9A6A42551FF6}"/>
+    <hyperlink ref="A59" r:id="rId55" xr:uid="{88C16AE5-2964-47DA-866E-C99E20C640BF}"/>
+    <hyperlink ref="A60" r:id="rId56" xr:uid="{DEE39071-BFD1-4659-BCBC-7253D2D83844}"/>
+    <hyperlink ref="A61" r:id="rId57" xr:uid="{124911A5-BF82-4A8A-90E3-3B307B75745A}"/>
+    <hyperlink ref="A62" r:id="rId58" xr:uid="{872676C7-BA93-44ED-8176-D65A522D055F}"/>
+    <hyperlink ref="A63" r:id="rId59" xr:uid="{8C69D9C5-F81F-43A4-88F1-F5072E510E74}"/>
+    <hyperlink ref="A64" r:id="rId60" xr:uid="{7AB8998F-8F34-45A4-B0AD-E6A7A0B2A881}"/>
+    <hyperlink ref="A65" r:id="rId61" xr:uid="{E59E2C03-FBE2-4EEE-AF2C-2EFBEABA12BE}"/>
+    <hyperlink ref="A66" r:id="rId62" xr:uid="{E98E434E-9191-4408-B92B-0C826578785E}"/>
+    <hyperlink ref="A67" r:id="rId63" xr:uid="{94690B43-F21E-4A61-B018-142AAE1B9ADB}"/>
+    <hyperlink ref="A70" r:id="rId64" xr:uid="{30179ED1-FF44-42C3-9D41-B7016703D894}"/>
+    <hyperlink ref="A71" r:id="rId65" xr:uid="{1ADF7731-1C78-48BE-AAA9-4C317A651BD8}"/>
+    <hyperlink ref="A72" r:id="rId66" xr:uid="{D2BC7663-6094-4414-9F29-42EB24D336C6}"/>
+    <hyperlink ref="A73" r:id="rId67" xr:uid="{2FFE24D8-5AB1-4F84-96BF-4128D22D12CC}"/>
+    <hyperlink ref="A74" r:id="rId68" xr:uid="{96A8D8B5-3A73-4548-814D-5DBC7029281A}"/>
+    <hyperlink ref="A53" r:id="rId69" xr:uid="{C95D41BC-2BE5-41DB-91BA-DDDADA812E67}"/>
+    <hyperlink ref="A75" r:id="rId70" xr:uid="{9C117DCB-567A-4238-B1DB-4E79F5FEFD0F}"/>
+    <hyperlink ref="A76" r:id="rId71" xr:uid="{39CDE5E9-80B4-431E-9B6A-23077E525A95}"/>
+    <hyperlink ref="A77" r:id="rId72" xr:uid="{851B6F22-EA97-4169-AFEA-1E55E7DAB8BB}"/>
+    <hyperlink ref="A78" r:id="rId73" xr:uid="{7211144F-07D8-4C74-998F-6DB44B3B9C9E}"/>
+    <hyperlink ref="A79" r:id="rId74" xr:uid="{269DB1EF-3835-4747-89A9-EF8F5B50AD58}"/>
+    <hyperlink ref="A80" r:id="rId75" xr:uid="{3A3D79C0-396E-45F0-9F95-323455383605}"/>
+    <hyperlink ref="A81" r:id="rId76" xr:uid="{7BD2167F-29F3-4974-8CCC-2A0B0452CDCB}"/>
+    <hyperlink ref="A82" r:id="rId77" xr:uid="{1E5B6BA8-A124-436E-B988-9A290CE1FF56}"/>
+    <hyperlink ref="A83" r:id="rId78" xr:uid="{8891F656-A5A3-4E45-B521-F203496DE824}"/>
+    <hyperlink ref="A84" r:id="rId79" xr:uid="{24F9B58E-0739-42CE-B33E-92641CD0D595}"/>
+    <hyperlink ref="A85" r:id="rId80" xr:uid="{C7443DD0-9344-40C4-874B-1767DBD50427}"/>
+    <hyperlink ref="A86" r:id="rId81" xr:uid="{AE4C65C3-8DCB-4AE5-8442-87A00ED8DCDB}"/>
+    <hyperlink ref="A87" r:id="rId82" xr:uid="{2CC71A87-9DD9-48D3-B3D0-197ABE68EDEE}"/>
+    <hyperlink ref="A88" r:id="rId83" xr:uid="{44AF49EA-475E-4A10-8D61-9C3C24AF667D}"/>
+    <hyperlink ref="A91" r:id="rId84" xr:uid="{1B9E0934-1E3E-44C6-ADF5-9D4FBE2966A9}"/>
+    <hyperlink ref="A92" r:id="rId85" xr:uid="{1512CE27-C7EE-4C2D-8EDC-C870908999A6}"/>
+    <hyperlink ref="A93" r:id="rId86" xr:uid="{4194F7AE-884A-4DC7-A28E-76CBEBD37199}"/>
+    <hyperlink ref="A90" r:id="rId87" xr:uid="{30AEC6DE-59B8-4F03-9BB0-94F9F7739D9A}"/>
+    <hyperlink ref="A54" r:id="rId88" xr:uid="{00567345-3DC5-4383-8379-17CFAA2A60F6}"/>
+    <hyperlink ref="A69" r:id="rId89" xr:uid="{23C81692-18EA-4785-AFF2-84B19A44313E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId91"/>
+  <pageSetup orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
 
